--- a/biology/Zoologie/Coucou_koël/Coucou_koël.xlsx
+++ b/biology/Zoologie/Coucou_koël/Coucou_koël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_ko%C3%ABl</t>
+          <t>Coucou_koël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eudynamys scolopaceus
 Le Coucou koël (Eudynamys scolopaceus) est une espèce d'oiseaux de la famille des cuculidés dénommé d'après son chant.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_ko%C3%ABl</t>
+          <t>Coucou_koël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coucou koël mesure de 39 à 49 de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coucou koël mesure de 39 à 49 de long.
 Les mâles sont noirs et les femelles gris-brun.
 			Mâle
 			Femelle
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coucou_ko%C3%ABl</t>
+          <t>Coucou_koël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le sud de l'Asie, en Chine et en Australie.
 Le mot koël signifie « rossignol » en Inde à cause du chant mélodieux du coucou indien. Il est considéré comme l'oiseau de la pluie ou de l'orage dans l'est de l'Australie où la tradition veut qu'il chante juste avant la pluie.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coucou_ko%C3%ABl</t>
+          <t>Coucou_koël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Alan P. Peterson, il existe 17 sous-espèces :
 Eudynamys scolopaceus alberti  Rothschild &amp; Hartert, 1907 ;
